--- a/Tests/Validation/Canola/Greenethorpe2014.xlsx
+++ b/Tests/Validation/Canola/Greenethorpe2014.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lil026\ApsimX\Prototypes\Canola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\01-Projects\ApsimX\Tests\Validation\Canola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AB2A52-02E1-4C2F-9658-4DC6948850B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29ED8C0-A2FD-46F8-979E-07C4A23C045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="15840" windowHeight="13095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
     <sheet name="OBSPhenology" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$W$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$X$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="75">
   <si>
     <t>SimulationName</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>HarvestRipe</t>
+  </si>
+  <si>
+    <t>Canola.FrostHeatGrainWt</t>
   </si>
 </sst>
 </file>
@@ -1099,20 +1102,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048564"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,40 +1174,43 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1214,14 +1241,14 @@
       <c r="K2">
         <v>65.8</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>9.5</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1249,11 +1276,11 @@
       <c r="K3">
         <v>482.2</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>51.1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1284,14 +1311,14 @@
       <c r="K4">
         <v>699.3</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6.7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>219.9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1322,14 +1349,14 @@
       <c r="K5">
         <v>635.29999999999995</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.7</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1363,14 +1390,14 @@
       <c r="K6">
         <v>842.1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4.8</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>67.2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1407,41 +1434,41 @@
       <c r="L7">
         <v>225.1</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>3.56</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>63830</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2761</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3.3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>84.7</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>17.7</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.12</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7004</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1469,11 +1496,11 @@
       <c r="J8">
         <v>43.7</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1504,14 +1531,14 @@
       <c r="K9">
         <v>129.80000000000001</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>5.7</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1542,14 +1569,14 @@
       <c r="K10">
         <v>296.3</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>34.9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1580,14 +1607,14 @@
       <c r="K11">
         <v>417.4</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5.8</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>64.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1621,14 +1648,14 @@
       <c r="K12">
         <v>498.3</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.4</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1665,41 +1692,41 @@
       <c r="L13">
         <v>472</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.3</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3.36</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>141552</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>8702</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>3.5</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>88.4</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>27.4</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.09</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>12131</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>552</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1727,11 +1754,14 @@
       <c r="J14">
         <v>45.1</v>
       </c>
-      <c r="Q14">
+      <c r="M14">
+        <v>685</v>
+      </c>
+      <c r="R14">
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1759,11 +1789,14 @@
       <c r="J15">
         <v>48.3</v>
       </c>
-      <c r="Q15">
+      <c r="M15">
+        <v>647.79999999999995</v>
+      </c>
+      <c r="R15">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1791,11 +1824,14 @@
       <c r="J16">
         <v>21.4</v>
       </c>
-      <c r="Q16">
+      <c r="M16">
+        <v>662.5</v>
+      </c>
+      <c r="R16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1823,11 +1859,14 @@
       <c r="J17">
         <v>43.4</v>
       </c>
-      <c r="Q17">
+      <c r="M17">
+        <v>739.8</v>
+      </c>
+      <c r="R17">
         <v>3.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1855,11 +1894,14 @@
       <c r="J18">
         <v>46.9</v>
       </c>
-      <c r="Q18">
+      <c r="M18">
+        <v>667.4</v>
+      </c>
+      <c r="R18">
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1887,11 +1929,14 @@
       <c r="J19">
         <v>49.8</v>
       </c>
-      <c r="Q19">
+      <c r="M19">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="R19">
         <v>1.8</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1925,14 +1970,14 @@
       <c r="K20">
         <v>481.3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5.4</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>16.2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1966,14 +2011,14 @@
       <c r="K21">
         <v>440.4</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4.2</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>53.9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2007,14 +2052,14 @@
       <c r="K22">
         <v>622.4</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3.4</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2048,14 +2093,14 @@
       <c r="K23">
         <v>670.3</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3.5</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>94.9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -2089,14 +2134,14 @@
       <c r="K24">
         <v>507.2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>6.7</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>31.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2130,14 +2175,14 @@
       <c r="K25">
         <v>957.1</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1.7</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>107.2</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2171,38 +2216,38 @@
       <c r="L26">
         <v>685</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.8</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>3.83</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>180610</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>10405</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>112.1</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>24.9</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.22</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>15485</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2236,38 +2281,38 @@
       <c r="L27">
         <v>647.79999999999995</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.8</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3.6</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>178696</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>10673</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>234.5</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>96.6</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.21</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>18113</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1255</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2301,38 +2346,38 @@
       <c r="L28">
         <v>662.5</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.8</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3.63</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>179234</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>12121</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>364.8</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>140.6</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.21</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>28713</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2240</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -2366,38 +2411,38 @@
       <c r="L29">
         <v>739.8</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.8</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3.05</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>247132</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>9165</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>226.6</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>99.1</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.15</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>46730</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1036</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2431,38 +2476,38 @@
       <c r="L30">
         <v>667.4</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.8</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>168839</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>11985</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>178.3</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>91.8</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.13</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>28532</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1921</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2499,41 +2544,41 @@
       <c r="L31">
         <v>322.89999999999998</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.3</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3.53</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>91425</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3906</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.8</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>43</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>16.100000000000001</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.03</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3939</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2561,11 +2606,14 @@
       <c r="J32">
         <v>48.9</v>
       </c>
-      <c r="Q32">
+      <c r="M32">
+        <v>518.5</v>
+      </c>
+      <c r="R32">
         <v>3.6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2593,11 +2641,14 @@
       <c r="J33">
         <v>43.4</v>
       </c>
-      <c r="Q33">
+      <c r="M33">
+        <v>506.4</v>
+      </c>
+      <c r="R33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2625,11 +2676,14 @@
       <c r="J34">
         <v>26</v>
       </c>
-      <c r="Q34">
+      <c r="M34">
+        <v>441.9</v>
+      </c>
+      <c r="R34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2657,11 +2711,14 @@
       <c r="J35">
         <v>45.4</v>
       </c>
-      <c r="Q35">
+      <c r="M35">
+        <v>484.5</v>
+      </c>
+      <c r="R35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2689,11 +2746,14 @@
       <c r="J36">
         <v>48</v>
       </c>
-      <c r="Q36">
+      <c r="M36">
+        <v>540.9</v>
+      </c>
+      <c r="R36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2721,11 +2781,14 @@
       <c r="J37">
         <v>45.7</v>
       </c>
-      <c r="Q37">
+      <c r="M37">
+        <v>284.5</v>
+      </c>
+      <c r="R37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2759,14 +2822,14 @@
       <c r="K38">
         <v>542</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2800,14 +2863,14 @@
       <c r="K39">
         <v>513.9</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>1.9</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>52.8</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2841,14 +2904,14 @@
       <c r="K40">
         <v>764.4</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>3.9</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>28.4</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2882,14 +2945,14 @@
       <c r="K41">
         <v>707.7</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>0.6</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>67.5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2923,14 +2986,14 @@
       <c r="K42">
         <v>603</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>5.6</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>86.1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2964,14 +3027,14 @@
       <c r="K43">
         <v>814.4</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>4.2</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>89.7</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -3006,37 +3069,40 @@
         <v>518.5</v>
       </c>
       <c r="M44">
+        <v>456</v>
+      </c>
+      <c r="N44">
         <v>0.3</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>3.69</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>140510</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>7231</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>47.2</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>9.1</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>0</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.02</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>3291</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -3071,37 +3137,40 @@
         <v>506.4</v>
       </c>
       <c r="M45">
+        <v>468.9</v>
+      </c>
+      <c r="N45">
         <v>0.3</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>3.65</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>139424</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>7657</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>136.1</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>31.9</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>0</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.11</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>12050</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>688</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3136,37 +3205,40 @@
         <v>441.9</v>
       </c>
       <c r="M46">
+        <v>386.4</v>
+      </c>
+      <c r="N46">
         <v>0.3</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>3.44</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>129123</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>4898</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>37.4</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>13.6</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>0</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.18</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>7997</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3201,37 +3273,40 @@
         <v>484.5</v>
       </c>
       <c r="M47">
+        <v>494.2</v>
+      </c>
+      <c r="N47">
         <v>0.3</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>3.65</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>133383</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>6821</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>70.599999999999994</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>23.2</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>0</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.16</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>9262</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>648</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3266,37 +3341,40 @@
         <v>540.9</v>
       </c>
       <c r="M48">
+        <v>406.6</v>
+      </c>
+      <c r="N48">
         <v>0.3</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>3.44</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>157307</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>9749</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>51.6</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>23</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>0</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>8263</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3334,40 +3412,43 @@
         <v>284.5</v>
       </c>
       <c r="M49">
+        <v>190</v>
+      </c>
+      <c r="N49">
         <v>0.2</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>3.58</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>79634</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>3413</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2.8</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>42.7</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>20.9</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>0</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>6778</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3401,14 +3482,14 @@
       <c r="K50">
         <v>392.3</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>24.2</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3442,14 +3523,14 @@
       <c r="K51">
         <v>589.70000000000005</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3483,14 +3564,14 @@
       <c r="K52">
         <v>737.4</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>84.9</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3524,14 +3605,14 @@
       <c r="K53">
         <v>763.4</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>7.2</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>170.7</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3565,14 +3646,14 @@
       <c r="K54">
         <v>642.70000000000005</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>5.4</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3606,14 +3687,14 @@
       <c r="K55">
         <v>1048.3</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2.5</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -3648,37 +3729,40 @@
         <v>456</v>
       </c>
       <c r="M56">
+        <v>365.4</v>
+      </c>
+      <c r="N56">
         <v>0.3</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>3.52</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>130120</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>6889</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>65.7</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>11.9</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>0</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.18</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>5744</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3713,37 +3797,40 @@
         <v>468.9</v>
       </c>
       <c r="M57">
+        <v>379.8</v>
+      </c>
+      <c r="N57">
         <v>0.3</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>3.28</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>142900</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>7237</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>77.8</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>19</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>0</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.11</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>4813</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -3778,37 +3865,40 @@
         <v>386.4</v>
       </c>
       <c r="M58">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="N58">
         <v>0.3</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>3.17</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>122939</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>5193</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>38.9</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>17.8</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>0</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.17</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>11857</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>254</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -3843,37 +3933,40 @@
         <v>494.2</v>
       </c>
       <c r="M59">
+        <v>314.3</v>
+      </c>
+      <c r="N59">
         <v>0.3</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>3.53</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>140012</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>7716</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>141.1</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>49.9</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
       <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
         <v>13982</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>1282</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -3908,37 +4001,40 @@
         <v>406.6</v>
       </c>
       <c r="M60">
+        <v>349</v>
+      </c>
+      <c r="N60">
         <v>0.2</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2.86</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>143517</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>8183</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>8.5</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>0</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.21</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>7764</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -3976,40 +4072,43 @@
         <v>190</v>
       </c>
       <c r="M61">
+        <v>137.6</v>
+      </c>
+      <c r="N61">
         <v>0.2</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>3.25</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>58772</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>3053</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>1.9</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>51.4</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>16.3</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>0</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.13</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>6458</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -4043,14 +4142,14 @@
       <c r="K62">
         <v>516.79999999999995</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>69.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -4084,14 +4183,14 @@
       <c r="K63">
         <v>592.9</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>4</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>60.9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -4125,14 +4224,14 @@
       <c r="K64">
         <v>482.4</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>7.6</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -4166,14 +4265,14 @@
       <c r="K65">
         <v>440.2</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>1.7</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>17.3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>56</v>
       </c>
@@ -4207,14 +4306,14 @@
       <c r="K66">
         <v>569.79999999999995</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>0.6</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>47.3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>57</v>
       </c>
@@ -4248,14 +4347,14 @@
       <c r="K67">
         <v>606.9</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>26.8</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -4289,38 +4388,38 @@
       <c r="L68">
         <v>365.4</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>0.3</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>3.23</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>113082</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>5575</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>62.4</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>18.100000000000001</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>0</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.03</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>4546</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -4357,38 +4456,38 @@
       <c r="L69">
         <v>379.8</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.3</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>2.91</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>129658</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>6392</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>134.9</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>40</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>0</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>7713</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -4425,41 +4524,41 @@
       <c r="L70">
         <v>291.60000000000002</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>0.3</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>2.9</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>100533</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>3699</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>2.4</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>80.099999999999994</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>12.1</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>0</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>2772</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4496,41 +4595,41 @@
       <c r="L71">
         <v>314.3</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.3</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>2.99</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>104800</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>5200</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>1.9</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>108.9</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>33.700000000000003</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>0</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>8921</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -4567,41 +4666,41 @@
       <c r="L72">
         <v>349</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>0.3</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>2.94</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>118424</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>6193</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>10</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>76.3</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>41</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>0</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.13</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>12740</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>1086</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -4638,42 +4737,42 @@
       <c r="L73">
         <v>137.6</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>0.2</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>3.32</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>41315</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>2008</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>4.7</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>64.900000000000006</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>14.8</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>0</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.06</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>3716</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>212</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W73" xr:uid="{724E0034-B98F-4FAB-96ED-47A4F16C5823}">
+  <autoFilter ref="A1:X73" xr:uid="{724E0034-B98F-4FAB-96ED-47A4F16C5823}">
     <filterColumn colId="2">
       <filters>
         <filter val="_Ex3"/>
@@ -4681,6 +4780,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4688,47 +4788,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B995B-358C-416B-A116-CC286325F030}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>D2&amp;E2&amp;"_Ex3Cv"&amp;B2&amp;"TOS"&amp;G2</f>
         <v>Greenethorpe2014_Ex3Cv44Y87_CLTOS1</v>
@@ -4805,7 +4905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>D3&amp;E3&amp;"_Ex3Cv"&amp;B3&amp;"TOS"&amp;G3</f>
         <v>Greenethorpe2014_Ex3Cv45Y88_CLTOS1</v>
@@ -4844,7 +4944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A25" si="0">D4&amp;E4&amp;"_Ex3Cv"&amp;B4&amp;"TOS"&amp;G4</f>
         <v>Greenethorpe2014_Ex3CvATR_GemTOS1</v>
@@ -4883,7 +4983,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola559_TTTOS1</v>
@@ -4922,7 +5022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola575_CLTOS1</v>
@@ -4961,7 +5061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola971_CLTOS1</v>
@@ -5000,7 +5100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv44Y87_CLTOS2</v>
@@ -5039,7 +5139,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv45Y88_CLTOS2</v>
@@ -5078,7 +5178,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvATR_GemTOS2</v>
@@ -5117,7 +5217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola559_TTTOS2</v>
@@ -5156,7 +5256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola575_CLTOS2</v>
@@ -5195,7 +5295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola971_CLTOS2</v>
@@ -5234,7 +5334,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv44Y87_CLTOS3</v>
@@ -5273,7 +5373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv45Y88_CLTOS3</v>
@@ -5312,7 +5412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvATR_GemTOS3</v>
@@ -5351,7 +5451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola559_TTTOS3</v>
@@ -5390,7 +5490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola575_CLTOS3</v>
@@ -5429,7 +5529,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola971_CLTOS3</v>
@@ -5468,7 +5568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv44Y87_CLTOS4</v>
@@ -5507,7 +5607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3Cv45Y88_CLTOS4</v>
@@ -5546,7 +5646,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvATR_GemTOS4</v>
@@ -5585,7 +5685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola559_TTTOS4</v>
@@ -5624,7 +5724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola575_CLTOS4</v>
@@ -5663,7 +5763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Greenethorpe2014_Ex3CvHyola971_CLTOS4</v>
